--- a/output/outputExec_2.xlsx
+++ b/output/outputExec_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\Desktop\CR1819\TrabPratico\work\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\Documents\MyProjects\ISEC\CR_MatlabNN\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDA814C-92C9-44EA-9DD0-324475CE3E0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6EDC1D-254E-4FE5-8097-4BA59E2FC94A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10665" xr2:uid="{A66A132D-91F6-4546-BFB3-8C76E4F698C9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10665" xr2:uid="{A4D68E92-D6E8-4827-8CE7-88F9F2C8704E}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Nome do Treino</t>
+  </si>
+  <si>
+    <t>./save/teste.mat</t>
+  </si>
+  <si>
+    <t>Função Treino</t>
+  </si>
+  <si>
+    <t>trainscg</t>
+  </si>
+  <si>
+    <t>Divisao dos Exemplos</t>
+  </si>
+  <si>
+    <t>Camadas</t>
+  </si>
+  <si>
+    <t>Nº Neuronios</t>
+  </si>
+  <si>
+    <t>Função de Activacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcao de Divisao </t>
+  </si>
+  <si>
+    <t>Layer 1</t>
+  </si>
+  <si>
+    <t>tansig</t>
+  </si>
+  <si>
+    <t>Trainning</t>
+  </si>
+  <si>
+    <t>Layer 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation </t>
+  </si>
+  <si>
+    <t>Layer 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
+  </si>
+  <si>
+    <t>Layer 4</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Precisoa Treino</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Precisao Global</t>
   </si>
 </sst>
 </file>
@@ -383,20 +446,286 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A96E4F5-980D-4BEB-95DF-B6AA124B18C2}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B767C63E-9992-4EB3-A7B5-AE7D5965CC6B}">
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>0</v>
       </c>
     </row>
